--- a/6- Ingenieria de producto/6.1 - Análisis/04- Archivos de Trabajo/Transacciones y descuentos.xlsx
+++ b/6- Ingenieria de producto/6.1 - Análisis/04- Archivos de Trabajo/Transacciones y descuentos.xlsx
@@ -1,27 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/814806da9b161d5e/Documentos/Proyecto MID-Caja/Repositorio/documentacion/6- Ingenieria de producto/6.1 - Análisis/04- Archivos de Trabajo/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_F3089FA324CFA175EF838DB4C1763021740C92A0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F85C241-FCC6-4DB1-8ABD-75D95DB25C63}"/>
+  <bookViews>
+    <workbookView minimized="1" xWindow="345" yWindow="1785" windowWidth="12000" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Tipo Transacciones - Parámetros" sheetId="1" r:id="rId4"/>
+    <sheet name="Tipo Transacciones - Parámetros" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Tipo Transacción</t>
   </si>
   <si>
-    <t>(Agrupación de transacciones)</t>
-  </si>
-  <si>
-    <t>Nombre</t>
-  </si>
-  <si>
     <t>Descripción</t>
   </si>
   <si>
@@ -71,21 +74,31 @@
   </si>
   <si>
     <t>Ver Caja</t>
+  </si>
+  <si>
+    <t>Transacción</t>
+  </si>
+  <si>
+    <t>parcial o Total</t>
+  </si>
+  <si>
+    <t>prioridad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -96,11 +109,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
-    <border/>
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -114,39 +133,52 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -336,181 +368,203 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A2:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="23.25"/>
-    <col customWidth="1" min="2" max="2" width="20.5"/>
-    <col customWidth="1" min="3" max="3" width="26.13"/>
-    <col customWidth="1" min="4" max="4" width="18.13"/>
-    <col customWidth="1" min="5" max="5" width="16.25"/>
-    <col customWidth="1" min="6" max="6" width="13.75"/>
-    <col customWidth="1" min="7" max="7" width="14.75"/>
+    <col min="1" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" ht="54.0" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="I3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="s">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>